--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DB08D-0E46-4924-A962-FFB60F6E9137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248C9DC-3267-47AB-B57B-0A55EDD92507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Test Case #</t>
   </si>
@@ -125,49 +125,63 @@
     <t xml:space="preserve"> Clicking product tab will link user to product page</t>
   </si>
   <si>
+    <t xml:space="preserve">1)Clicking on person icon dropdown after logging in </t>
+  </si>
+  <si>
+    <t>1)Users will see cart item tab , clicking on it will lead to cart item (shoppping cart )page</t>
+  </si>
+  <si>
+    <t>User at Navbar(Orders Page)</t>
+  </si>
+  <si>
+    <t>1)Users will see order tab , clicking on it will lead to order item page</t>
+  </si>
+  <si>
+    <t>User at Navbar(Logout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Users will see logout tab </t>
+  </si>
+  <si>
+    <t>1)Upon clicking logout, redirect to homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users able to update the quantity by keying the desired  value in the input field and click on update 
+2) Users are able to delete the cart item by clicking on bin icon located at the  right-middle section of the whole box.Items will then be removed from shopping cart
+3) At the bottom right of the box user able to checkout products, clicking on checkout will lead users to the stripe payment checkout page.Users able to go to shopping page by clicking on continue to shop button located beside checout button
+ </t>
+  </si>
+  <si>
+    <t>1)Users able to see ordered item whether it is pending or completed. Item ordered date ,cost ,status,  quantity ,name, id
+2)Users able to click on more details button to look at the details of the product at details product page. Order address,shipping method,order status, payment method, order id will be shown in the more details page.The back button under order details page  will lead user back to the orders page
+3)The receipt button will lead to receipt page where a summary of product quantity amount charged will be shown</t>
+  </si>
+  <si>
+    <t>User at Navbar (Contact Us Tab)</t>
+  </si>
+  <si>
+    <t>Clicking on contact us tab at navbar</t>
+  </si>
+  <si>
+    <t>Clicking  will link to contact us page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users are able to fill in contact us page, fields like name, email , types of enquiries and comments.
+2) By clicking on submit black button at the bottom of the contact us box , successfully submitted toaster will show .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)After user at the register page, users are to fill in their details eg. Name, username, email, password, contact_number
+2) Users are able to click on submit after registering and  it will bring users to login page
+3)Users are to fill in email, password at the login page to access the web product page to make purchase
+*validation error fields for  both login and register page  will show if invalid information is filled and submit
+* after login if users are not active for 60 mins a session will prompt users whether to continue </t>
+  </si>
+  <si>
     <t xml:space="preserve">1) Refer to test Case 3
 *Continue from test Case 3
 2) When users click on products or more button it will bring users to the detail page
 3) The detail page will show more details of the product like shelf- life, type, packaging, cuisine style, cost ,ingredients,country
-4)Users are able to select size,input the quantity and add item to cart by clicking add to cart button. User are able to go back to product page by clicking on back to shop button located at the bottom of page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Clicking on person icon dropdown after logging in </t>
-  </si>
-  <si>
-    <t>1)Users will see cart item tab , clicking on it will lead to cart item (shoppping cart )page</t>
-  </si>
-  <si>
-    <t>1)After user at the register page, users are to fill in their details eg. Name, username, email, password, contact_number
-2) Users are able to click on submit after registering and  it will bring users to login page
-3)Users are to fill in email, password at the login page to access the web to make purchase
-*validation error fields for  both login and register page  will show if invalid information is filled and submit</t>
-  </si>
-  <si>
-    <t>User at Navbar(Orders Page)</t>
-  </si>
-  <si>
-    <t>1)Users will see order tab , clicking on it will lead to order item page</t>
-  </si>
-  <si>
-    <t>User at Navbar(Logout)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Users will see logout tab </t>
-  </si>
-  <si>
-    <t>1)Upon clicking logout, redirect to homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Users able to update the quantity by keying the desired  value in the input field and click on update 
-2) Users are able to delete the cart item by clicking on bin icon located at the  right-middle section of the whole box.Items will then be removed from shopping cart
-3) At the bottom right of the box user able to checkout products, clicking on checkout will lead users to the stripe payment checkout page.Users able to go to shopping page by clicking on continue to shop button located beside checout button
- </t>
-  </si>
-  <si>
-    <t>1)Users able to see ordered item whether it is pending or completed. Item ordered date ,cost ,status,  quantity ,name, id
-2)Users able to click on more details button to look at the details of the product at details product page. Order address,shipping method,order status, payment method, order id will be shown in the more details page.The back button under order details page  will lead user back to the orders page
-3)The receipt button will lead to receipt page where a summary of product quantity amount charged will be shown</t>
+4)Users are able to select size,input the quantity and add item to cart by clicking add to cart button. Users are able to go back to product page by clicking on back to shop button located at the bottom of page </t>
   </si>
 </sst>
 </file>
@@ -228,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -251,11 +265,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,10 +346,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,22 +673,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -630,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -638,7 +710,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -652,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -660,7 +732,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -674,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -682,7 +754,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -696,7 +768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -704,7 +776,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -718,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -726,7 +798,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -737,141 +809,163 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="262.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="176.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E248C9DC-3267-47AB-B57B-0A55EDD92507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FCAF8-EFAD-4ED0-BA4C-671B7FFDCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$E$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Test Case #</t>
   </si>
@@ -56,132 +56,136 @@
     <t xml:space="preserve">1) Link user to respective page </t>
   </si>
   <si>
+    <t>User at Home Content Page (Carousel 3 images)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Clicking will change the carousel image </t>
+  </si>
+  <si>
+    <t>1) Users able see changes at home background image upon clicking</t>
+  </si>
+  <si>
+    <t>User at Home Content Page (Middle Box)</t>
+  </si>
+  <si>
+    <t>1) Clicking will link users to product page</t>
+  </si>
+  <si>
+    <t>Clicking on shop button</t>
+  </si>
+  <si>
+    <t>Clicking on 3 small tab before footer section</t>
+  </si>
+  <si>
+    <t>Clicking on home tabs link to respective page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clicking home tab will link user to home page</t>
+  </si>
+  <si>
+    <t>1) Refer to test Case 2</t>
+  </si>
+  <si>
+    <t>1) Refer to test Case 3</t>
+  </si>
+  <si>
+    <t>User at Navbar(Login Tab)</t>
+  </si>
+  <si>
+    <t>Clicking on login will link to login/register page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clicking product tab will link user to product page</t>
+  </si>
+  <si>
+    <t>User at Navbar(Logout)</t>
+  </si>
+  <si>
+    <t>User at Navbar (Contact Us Tab)</t>
+  </si>
+  <si>
+    <t>Clicking on contact us tab at navbar</t>
+  </si>
+  <si>
     <t>1) Click on tab link to
-(Home,Product ,Contact, Login, Profile, Cart Item,Orders,Logout)</t>
-  </si>
-  <si>
-    <t>User at Home Content Page (Carousel 3 images)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Clicking will change the carousel image </t>
-  </si>
-  <si>
-    <t>1) Users able see changes at home background image upon clicking</t>
-  </si>
-  <si>
-    <t>User at Home Content Page (Middle Box)</t>
-  </si>
-  <si>
-    <t>1) Clicking will link users to product page</t>
-  </si>
-  <si>
-    <t>Clicking on shop button</t>
-  </si>
-  <si>
-    <t>Clicking on 3 small tab before footer section</t>
-  </si>
-  <si>
-    <t>Clicking on home tabs link to respective page</t>
-  </si>
-  <si>
-    <t>User at Navbar (Hometab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Users able to browse sauce and spice Products description, type
-2) Users able to click on the products and the more button to view for the details of products
-3) Users able to use(accordian) search filter located  at the top to search for products, eg, name, min-shelf-life, max-shelf-life, type , countries, packaging
-4) After selecting or keying the values in the search field, click on search to execute the search and clear to clear the values input 
-*Note:  name search field value needs to exactly match product name in capital or small letter in order for it to work
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clicking home tab will link user to home page</t>
-  </si>
-  <si>
-    <t>1) Refer to test Case 2</t>
-  </si>
-  <si>
-    <t>1)Refer to test Case 2</t>
-  </si>
-  <si>
-    <t>User at Navbar (ProductsTab)</t>
-  </si>
-  <si>
-    <t>1) Refer to test Case 3</t>
-  </si>
-  <si>
-    <t>User at Navbar(Login Tab)</t>
-  </si>
-  <si>
-    <t>Clicking on login will link to login/register page</t>
-  </si>
-  <si>
-    <t>User at Navbar(Cartitem)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) First time Users should click on signup ( blue link within the register box) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clicking product tab will link user to product page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Clicking on person icon dropdown after logging in </t>
-  </si>
-  <si>
-    <t>1)Users will see cart item tab , clicking on it will lead to cart item (shoppping cart )page</t>
-  </si>
-  <si>
-    <t>User at Navbar(Orders Page)</t>
-  </si>
-  <si>
-    <t>1)Users will see order tab , clicking on it will lead to order item page</t>
-  </si>
-  <si>
-    <t>User at Navbar(Logout)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Users will see logout tab </t>
-  </si>
-  <si>
-    <t>1)Upon clicking logout, redirect to homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Users able to update the quantity by keying the desired  value in the input field and click on update 
-2) Users are able to delete the cart item by clicking on bin icon located at the  right-middle section of the whole box.Items will then be removed from shopping cart
-3) At the bottom right of the box user able to checkout products, clicking on checkout will lead users to the stripe payment checkout page.Users able to go to shopping page by clicking on continue to shop button located beside checout button
- </t>
-  </si>
-  <si>
-    <t>1)Users able to see ordered item whether it is pending or completed. Item ordered date ,cost ,status,  quantity ,name, id
-2)Users able to click on more details button to look at the details of the product at details product page. Order address,shipping method,order status, payment method, order id will be shown in the more details page.The back button under order details page  will lead user back to the orders page
-3)The receipt button will lead to receipt page where a summary of product quantity amount charged will be shown</t>
-  </si>
-  <si>
-    <t>User at Navbar (Contact Us Tab)</t>
-  </si>
-  <si>
-    <t>Clicking on contact us tab at navbar</t>
-  </si>
-  <si>
-    <t>Clicking  will link to contact us page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Users are able to fill in contact us page, fields like name, email , types of enquiries and comments.
+(Home,  Product ,  Contact,  Login,  Profile,  Cart Item,  Orders,  Logout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users are able to fill in contact us page, fields like name, email, types of enquiries and comments.
 2) By clicking on submit black button at the bottom of the contact us box , successfully submitted toaster will show .  </t>
   </si>
   <si>
-    <t xml:space="preserve">1)After user at the register page, users are to fill in their details eg. Name, username, email, password, contact_number
-2) Users are able to click on submit after registering and  it will bring users to login page
-3)Users are to fill in email, password at the login page to access the web product page to make purchase
-*validation error fields for  both login and register page  will show if invalid information is filled and submit
-* after login if users are not active for 60 mins a session will prompt users whether to continue </t>
+    <t>User at Navbar(Orders Tab)</t>
+  </si>
+  <si>
+    <t>User at Navbar (Products Tab)</t>
+  </si>
+  <si>
+    <t>User at Navbar (Home tab)</t>
+  </si>
+  <si>
+    <t>User at Navbar(Cartitem Tab)</t>
+  </si>
+  <si>
+    <t>User at Navbar(Profile Tab)</t>
+  </si>
+  <si>
+    <t>1) Users able to see ordered items whether it is pending or completed. Item ordered date, cost, status, no. of items, name, id
+2) Users able to click on more details button, redirect users to detail order page. Order address, shipping method, order status, payment method, order id will be shown in the more details page.The back button located bottom left under order details page will lead user back to the orders page
+3) The receipt button will lead to receipt page where a summary of product quantity, amount charged will be shown</t>
+  </si>
+  <si>
+    <t>1) Upon clicking logout, redirect to homepage</t>
+  </si>
+  <si>
+    <t>1) Users able to update the quantity by keying the desired  value in the input field and click on update 
+2) Users are able to delete the cart item by clicking on bin icon located at the  right-middle section of the shopping cart box. Items will then be removed from shopping cart
+3) At the bottom right of the box, user able to checkout products by clicking on checkout and it will lead users to stripe payment checkout page. Users able to go to shopping page by clicking on continue to shop button located beside checkout button</t>
+  </si>
+  <si>
+    <t>1) Users are able to view profile name, email, contact number and account created date</t>
   </si>
   <si>
     <t xml:space="preserve">1) Refer to test Case 3
 *Continue from test Case 3
 2) When users click on products or more button it will bring users to the detail page
-3) The detail page will show more details of the product like shelf- life, type, packaging, cuisine style, cost ,ingredients,country
-4)Users are able to select size,input the quantity and add item to cart by clicking add to cart button. Users are able to go back to product page by clicking on back to shop button located at the bottom of page </t>
+3) The detail page will show more details of the product like shelf- life, type, packaging, cuisine style, cost, ingredients, country
+4) Users are able to select size, input the quantity value and add items to cart by clicking add to cart button. Users are able to go back to product page by clicking on back to shop button located at the bottom of page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) After user is at the register page, users are to fill in their details eg. name, username, email, password, contact number
+2) Users are able to click on submit after registering and it will bring users to login page
+3) Users are to fill in email, password at the login page to access the web product page to make purchases
+*validation error fields for  both login and register page  will show if invalid information is filled and submit
+* after logging in if users are not active for 60 mins a session will prompt users whether to continue </t>
+  </si>
+  <si>
+    <t>1) Clicking will link to contact us page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicking on person icon dropdown after logging in </t>
+  </si>
+  <si>
+    <t>1) Users will see cart item tab, clicking on it will lead to cart item (shoppping cart )page</t>
+  </si>
+  <si>
+    <t>1) Users will see profile tab, clicking on it will lead to customer's profile page</t>
+  </si>
+  <si>
+    <t>1) Users will see order tab, clicking on it will lead to order item page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Users will see logout tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) First time users should click on signup ( blue link within the register box) </t>
+  </si>
+  <si>
+    <t>1) Users able to browse sauce and spice products description, type
+2) Users able to click on the products and the more button to view for the details of products
+3) Users able to use(accordian) search filter located  at the top to search for products, eg. name, min-shelf-life, max-shelf-life, type, countries, packaging
+4) After selecting or keying the values in the search field, click on search to execute the search and clear to clear the values input 
+*Note:  name search field value needs to exactly match product name in capital or small letter in order for it to work</t>
   </si>
 </sst>
 </file>
@@ -673,17 +677,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
-    <col min="3" max="3" width="85" customWidth="1"/>
+    <col min="3" max="3" width="94.5546875" customWidth="1"/>
     <col min="4" max="4" width="52.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -715,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -727,51 +731,51 @@
     <row r="5" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -781,158 +785,174 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="262.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="213.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
@@ -967,8 +987,14 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1FCAF8-EFAD-4ED0-BA4C-671B7FFDCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EDAC45E-DEC6-4B1F-84AA-A3B4355A3A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
